--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,13 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>доплатить 10р</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>оплачено 894,79</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +90,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,24 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -159,23 +139,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,9 +155,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,468 +477,312 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43281</v>
+        <v>43459</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>5180</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>6140</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>2850</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43309</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5350</v>
+      <c r="C3" s="3">
+        <v>3230</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43585</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6340</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D17" si="0">C4-C2</f>
-        <v>170</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>914</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>1149</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>2920</v>
+      <c r="C5" s="10">
+        <v>3330</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>2.35</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>164.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43351</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5605</v>
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43641</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6590</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
+        <v>250</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>1147.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+        <f t="shared" si="1"/>
+        <v>1142.5</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>1495</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>3020</v>
+      <c r="C7" s="10">
+        <v>3480</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
         <v>2.35</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43372</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5740</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F17" si="1">D8*E8</f>
-        <v>607.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3080</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43433</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5990</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3180</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43459</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6140</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3230</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>43585</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>6340</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14">
-        <v>3330</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>43641</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>6590</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>1142.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14">
-        <v>3480</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>352.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>43700</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="F8" s="6">
+        <v>894.79</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>894.79</v>
+      </c>
+      <c r="H8" s="12">
+        <v>894.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43748</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7028</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUM(C10,-C6)</f>
+        <v>438</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>1940.34</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>2647.47</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1778.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3771</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(C11,-C7)</f>
+        <v>291</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>707.13</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G12" s="12">
+        <f>SUM(G2:G11)</f>
+        <v>6186.26</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H2:H11)</f>
+        <v>5309.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8">
-        <v>4.43</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>43748</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>7028</v>
-      </c>
-      <c r="D21" s="16">
-        <f>SUM(C21,-C16)</f>
-        <v>438</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4.43</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>1940.34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16">
-        <v>3771</v>
-      </c>
-      <c r="D22" s="16">
-        <f>SUM(C22,-C17)</f>
-        <v>291</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="6">
-        <f>D22*E22</f>
-        <v>707.13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
+        <f>SUM(H12,-G12)</f>
+        <v>-876.51000000000022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,37 +742,54 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="9">
+        <v>43950</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <f>SUM(C12,-C8)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
-        <f>SUM(G2:G11)</f>
-        <v>6186.26</v>
+        <v>7106</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(H2:H11)</f>
-        <v>5309.75</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(C13,-C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>0</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="12">
-        <f>SUM(H12,-G12)</f>
-        <v>-876.51000000000022</v>
-      </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -780,9 +797,42 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>13292.26</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>12415.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>SUM(H14,-G14)</f>
+        <v>-876.51000000000022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -792,37 +792,54 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="9">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>8606</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(C14,-C10)</f>
+        <v>1578</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>6990.54</v>
       </c>
       <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>13292.26</v>
+        <v>2340</v>
       </c>
       <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>12415.75</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
+      <c r="A15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4743</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM(C15,-C11)</f>
+        <v>972</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>2361.96</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <f>SUM(H14,-G14)</f>
-        <v>-876.51000000000022</v>
-      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -830,9 +847,42 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>15632.26</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>14755.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>-876.51000000000022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <v>894.79</v>
@@ -684,7 +684,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" ref="F9:F15" si="2">D9*E9</f>
         <v>0</v>
       </c>
       <c r="G9" s="12"/>
@@ -701,19 +701,19 @@
         <v>7028</v>
       </c>
       <c r="D10" s="10">
-        <f>SUM(C10,-C6)</f>
+        <f t="shared" ref="D10:D15" si="3">SUM(C10,-C6)</f>
         <v>438</v>
       </c>
       <c r="E10" s="8">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>1940.34</v>
+        <f t="shared" si="2"/>
+        <v>1966.6200000000001</v>
       </c>
       <c r="G10" s="12">
         <f>SUM(F10,F11)</f>
-        <v>2647.47</v>
+        <v>2673.75</v>
       </c>
       <c r="H10" s="12">
         <v>1778.96</v>
@@ -728,14 +728,14 @@
         <v>3771</v>
       </c>
       <c r="D11" s="10">
-        <f>SUM(C11,-C7)</f>
+        <f t="shared" si="3"/>
         <v>291</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>707.13</v>
       </c>
       <c r="G11" s="12"/>
@@ -752,18 +752,18 @@
         <v>0</v>
       </c>
       <c r="D12" s="10">
-        <f>SUM(C12,-C8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>7106</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <v>7106</v>
@@ -778,14 +778,14 @@
         <v>0</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(C13,-C9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="12"/>
@@ -802,18 +802,19 @@
         <v>8606</v>
       </c>
       <c r="D14" s="10">
-        <f>SUM(C14,-C10)</f>
+        <f t="shared" si="3"/>
         <v>1578</v>
       </c>
       <c r="E14" s="8">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>6990.54</v>
+        <f t="shared" si="2"/>
+        <v>7085.22</v>
       </c>
       <c r="G14" s="12">
-        <v>2340</v>
+        <f>SUM(F14,F15)</f>
+        <v>9447.18</v>
       </c>
       <c r="H14" s="12">
         <v>2340</v>
@@ -828,51 +829,69 @@
         <v>4743</v>
       </c>
       <c r="D15" s="10">
-        <f>SUM(C15,-C11)</f>
+        <f t="shared" si="3"/>
         <v>972</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>2361.96</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="9">
+        <v>44014</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8821</v>
+      </c>
+      <c r="D16" s="10">
+        <f>SUM(C16,-C14)</f>
+        <v>215</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
+        <v>965.35</v>
       </c>
       <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>15632.26</v>
+        <f>SUM(F16,F17)</f>
+        <v>1213.21</v>
       </c>
       <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>14755.75</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4845</v>
+      </c>
+      <c r="D17" s="10">
+        <f>SUM(C17,-C15)</f>
+        <v>102</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="4"/>
+        <v>247.86</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>-876.51000000000022</v>
-      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -880,14 +899,47 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>16872.93</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
+        <v>15968.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>-904.18000000000029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -156,6 +162,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,11 +718,11 @@
         <f t="shared" si="2"/>
         <v>1966.6200000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
         <v>2673.75</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>1778.96</v>
       </c>
     </row>
@@ -894,47 +901,149 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="9">
+        <v>44053</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>9054</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(C18,-C16)</f>
+        <v>233</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="5">D18*E18</f>
+        <v>1097.43</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(F18,F19)</f>
+        <v>1428.93</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4975</v>
+      </c>
+      <c r="D19" s="10">
+        <f>SUM(C19,-C17)</f>
+        <v>130</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>331.5</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44071</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>9230</v>
+      </c>
+      <c r="D20" s="10">
+        <f>SUM(C20,-C18)</f>
+        <v>176</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
+        <v>828.96</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>1114.56</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1114.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5087</v>
+      </c>
+      <c r="D21" s="10">
+        <f>SUM(C21,-C19)</f>
+        <v>112</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="6"/>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>16872.93</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>15968.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="G22" s="12">
+        <f>SUM(G2:G21)</f>
+        <v>19416.420000000002</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(H2:H21)</f>
+        <v>18512.310000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
-        <v>-904.18000000000029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
+        <v>-904.11000000000058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>6340</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>200</v>
       </c>
       <c r="E4" s="8">
@@ -657,20 +657,21 @@
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
+        <v>6733</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>143</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <v>894.79</v>
+        <v>642.07000000000005</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
-        <v>894.79</v>
+        <v>894.79000000000008</v>
       </c>
       <c r="H8" s="12">
         <v>894.79</v>
@@ -682,17 +683,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
+        <v>3584</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ref="F9:F15" si="2">D9*E9</f>
-        <v>0</v>
+        <v>252.72000000000003</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -708,19 +710,19 @@
         <v>7028</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" ref="D10:D15" si="3">SUM(C10,-C6)</f>
-        <v>438</v>
+        <f t="shared" ref="D10:D15" si="3">SUM(C10,-C8)</f>
+        <v>295</v>
       </c>
       <c r="E10" s="8">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>1966.6200000000001</v>
+        <v>1324.55</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>2673.75</v>
+        <v>1778.96</v>
       </c>
       <c r="H10" s="13">
         <v>1778.96</v>
@@ -736,14 +738,14 @@
       </c>
       <c r="D11" s="10">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>707.13</v>
+        <v>454.41</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -756,21 +758,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <v>8233</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="E12" s="8">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
+        <v>5410.45</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>7106.59</v>
       </c>
       <c r="H12" s="12">
         <v>7106</v>
@@ -782,18 +785,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>4469</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1696.14</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -810,18 +813,18 @@
       </c>
       <c r="D14" s="10">
         <f t="shared" si="3"/>
-        <v>1578</v>
+        <v>373</v>
       </c>
       <c r="E14" s="8">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>7085.22</v>
+        <v>1674.77</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(F14,F15)</f>
-        <v>9447.18</v>
+        <v>2340.59</v>
       </c>
       <c r="H14" s="12">
         <v>2340</v>
@@ -837,14 +840,14 @@
       </c>
       <c r="D15" s="10">
         <f t="shared" si="3"/>
-        <v>972</v>
+        <v>274</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>2361.96</v>
+        <v>665.82</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -860,14 +863,14 @@
         <v>8821</v>
       </c>
       <c r="D16" s="10">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" ref="D16:D21" si="4">SUM(C16,-C14)</f>
         <v>215</v>
       </c>
       <c r="E16" s="8">
         <v>4.49</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
         <v>965.35</v>
       </c>
       <c r="G16" s="12">
@@ -887,14 +890,14 @@
         <v>4845</v>
       </c>
       <c r="D17" s="10">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="E17" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>247.86</v>
       </c>
       <c r="G17" s="12"/>
@@ -911,14 +914,14 @@
         <v>9054</v>
       </c>
       <c r="D18" s="10">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="5">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
         <v>1097.43</v>
       </c>
       <c r="G18" s="12">
@@ -938,14 +941,14 @@
         <v>4975</v>
       </c>
       <c r="D19" s="10">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>331.5</v>
       </c>
       <c r="G19" s="12"/>
@@ -962,14 +965,14 @@
         <v>9230</v>
       </c>
       <c r="D20" s="10">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
         <v>828.96</v>
       </c>
       <c r="G20" s="12">
@@ -989,51 +992,69 @@
         <v>5087</v>
       </c>
       <c r="D21" s="10">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>285.59999999999997</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
+      <c r="A22" s="9">
+        <v>44104</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>9553</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:D23" si="8">SUM(C22,-C20)</f>
+        <v>323</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>1521.33</v>
       </c>
       <c r="G22" s="12">
-        <f>SUM(G2:G21)</f>
-        <v>19416.420000000002</v>
+        <f>SUM(F22,F23)</f>
+        <v>2153.73</v>
       </c>
       <c r="H22" s="12">
-        <f>SUM(H2:H21)</f>
-        <v>18512.310000000001</v>
+        <v>1894.02</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
+      <c r="A23" s="11"/>
+      <c r="B23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5335</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="8"/>
+        <v>248</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="9"/>
+        <v>632.4</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="13">
-        <f>SUM(H22,-G22)</f>
-        <v>-904.11000000000058</v>
-      </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1041,9 +1062,42 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(G2:G23)</f>
+        <v>20675.36</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H2:H23)</f>
+        <v>20406.330000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13">
+        <f>SUM(H24,-G24)</f>
+        <v>-269.02999999999884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,37 +1057,55 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
+      <c r="A24" s="9">
+        <v>44137</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10023</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:D25" si="10">SUM(C24,-C22)</f>
+        <v>470</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
+        <v>2213.6999999999998</v>
       </c>
       <c r="G24" s="12">
-        <f>SUM(G2:G23)</f>
-        <v>20675.36</v>
+        <f>SUM(F24,F25)</f>
+        <v>2616.6</v>
       </c>
       <c r="H24" s="12">
-        <f>SUM(H2:H23)</f>
-        <v>20406.330000000002</v>
+        <v>2877.31</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
+      <c r="A25" s="11"/>
+      <c r="B25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5493</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="11"/>
+        <v>402.9</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="13">
-        <f>SUM(H24,-G24)</f>
-        <v>-269.02999999999884</v>
-      </c>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1095,9 +1113,42 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12">
+        <f>SUM(G2:G25)</f>
+        <v>23291.96</v>
+      </c>
+      <c r="H26" s="12">
+        <f>SUM(H2:H25)</f>
+        <v>23283.640000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13">
+        <f>SUM(H26,-G26)</f>
+        <v>-8.319999999996071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="R22" sqref="R22:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1108,47 +1108,149 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="9">
+        <v>44166</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>11506</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:D27" si="12">SUM(C26,-C24)</f>
+        <v>1483</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F27" si="13">D26*E26</f>
+        <v>6984.93</v>
+      </c>
+      <c r="G26" s="12">
+        <f>SUM(F26,F27)</f>
+        <v>8571.0300000000007</v>
+      </c>
+      <c r="H26" s="12">
+        <v>8571.0300000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>6115</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="12"/>
+        <v>622</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="13"/>
+        <v>1586.1</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>44193</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>12374</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:D29" si="14">SUM(C28,-C26)</f>
+        <v>868</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:F29" si="15">D28*E28</f>
+        <v>4088.2799999999997</v>
+      </c>
+      <c r="G28" s="12">
+        <f>SUM(F28,F29)</f>
+        <v>5029.2299999999996</v>
+      </c>
+      <c r="H28" s="12">
+        <v>5029.2299999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>6484</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="14"/>
+        <v>369</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="15"/>
+        <v>940.94999999999993</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="12">
-        <f>SUM(G2:G25)</f>
-        <v>23291.96</v>
-      </c>
-      <c r="H26" s="12">
-        <f>SUM(H2:H25)</f>
-        <v>23283.640000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="G30" s="12">
+        <f>SUM(G2:G27)</f>
+        <v>31862.989999999998</v>
+      </c>
+      <c r="H30" s="12">
+        <f>SUM(H2:H27)</f>
+        <v>31854.670000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13">
-        <f>SUM(H26,-G26)</f>
-        <v>-8.319999999996071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13">
+        <f>SUM(H30,-G30)</f>
+        <v>-8.319999999992433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22:R23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1210,37 +1210,55 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
+      <c r="A30" s="9">
+        <v>44288</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>12611</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" ref="D30:D31" si="16">SUM(C30,-C28)</f>
+        <v>237</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F31" si="17">D30*E30</f>
+        <v>1116.27</v>
       </c>
       <c r="G30" s="12">
-        <f>SUM(G2:G27)</f>
-        <v>31862.989999999998</v>
+        <f>SUM(F30,F31)</f>
+        <v>1598.22</v>
       </c>
       <c r="H30" s="12">
-        <f>SUM(H2:H27)</f>
-        <v>31854.670000000006</v>
+        <v>1598.22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>11</v>
+      <c r="A31" s="11"/>
+      <c r="B31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
+        <v>6673</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="16"/>
+        <v>189</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="17"/>
+        <v>481.95</v>
       </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="13">
-        <f>SUM(H30,-G30)</f>
-        <v>-8.319999999992433</v>
-      </c>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1248,9 +1266,42 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="12">
+        <f>SUM(G2:G31)</f>
+        <v>38490.44</v>
+      </c>
+      <c r="H32" s="12">
+        <f>SUM(H2:H31)</f>
+        <v>38482.12000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13">
+        <f>SUM(H32,-G32)</f>
+        <v>-8.319999999992433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1261,37 +1261,55 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
+      <c r="A32" s="9">
+        <v>44320</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>13227</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" ref="D32:D33" si="18">SUM(C32,-C30)</f>
+        <v>616</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F33" si="19">D32*E32</f>
+        <v>2901.36</v>
       </c>
       <c r="G32" s="12">
-        <f>SUM(G2:G31)</f>
-        <v>38490.44</v>
+        <f>SUM(F32,F33)</f>
+        <v>3885.66</v>
       </c>
       <c r="H32" s="12">
-        <f>SUM(H2:H31)</f>
-        <v>38482.12000000001</v>
+        <v>3885.66</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>11</v>
+      <c r="A33" s="11"/>
+      <c r="B33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>7059</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="18"/>
+        <v>386</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="19"/>
+        <v>984.3</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="13">
-        <f>SUM(H32,-G32)</f>
-        <v>-8.319999999992433</v>
-      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -1299,9 +1317,42 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12">
+        <f>SUM(G2:G32)</f>
+        <v>42376.100000000006</v>
+      </c>
+      <c r="H34" s="12">
+        <f>SUM(H2:H32)</f>
+        <v>42367.780000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f>SUM(H34,-G34)</f>
+        <v>-8.319999999992433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1312,37 +1312,55 @@
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12">
-        <f>SUM(G2:G32)</f>
-        <v>42376.100000000006</v>
-      </c>
-      <c r="H34" s="12">
-        <f>SUM(H2:H32)</f>
-        <v>42367.780000000013</v>
+      <c r="A34" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>13646</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:D35" si="20">SUM(C34,-C32)</f>
+        <v>419</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F35" si="21">D34*E34</f>
+        <v>1973.49</v>
+      </c>
+      <c r="G34" s="13">
+        <f>SUM(F34,F35)</f>
+        <v>2598.2399999999998</v>
+      </c>
+      <c r="H34" s="13">
+        <v>2960.88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>11</v>
+      <c r="A35" s="11"/>
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>7304</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="20"/>
+        <v>245</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="21"/>
+        <v>624.75</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="13">
-        <f>SUM(H34,-G34)</f>
-        <v>-8.319999999992433</v>
-      </c>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1350,9 +1368,42 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="12">
+        <f>SUM(G2:G35)</f>
+        <v>44974.340000000004</v>
+      </c>
+      <c r="H36" s="12">
+        <f>SUM(H2:H35)</f>
+        <v>45328.660000000011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13">
+        <f>SUM(H36,-G36)</f>
+        <v>354.32000000000698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,37 +1363,55 @@
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="12">
-        <f>SUM(G2:G35)</f>
-        <v>44974.340000000004</v>
-      </c>
-      <c r="H36" s="12">
-        <f>SUM(H2:H35)</f>
-        <v>45328.660000000011</v>
+      <c r="A36" s="9">
+        <v>44377</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>13846</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" ref="D36:D37" si="22">SUM(C36,-C34)</f>
+        <v>200</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:F37" si="23">D36*E36</f>
+        <v>942</v>
+      </c>
+      <c r="G36" s="13">
+        <f>SUM(F36,F37)</f>
+        <v>1120.5</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1120.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>11</v>
+      <c r="A37" s="11"/>
+      <c r="B37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>7374</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="23"/>
+        <v>178.5</v>
       </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="13">
-        <f>SUM(H36,-G36)</f>
-        <v>354.32000000000698</v>
-      </c>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -1401,9 +1419,42 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="12">
+        <f>SUM(G2:G37)</f>
+        <v>46094.840000000004</v>
+      </c>
+      <c r="H38" s="12">
+        <f>SUM(H2:H37)</f>
+        <v>46449.160000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f>SUM(H38,-G38)</f>
+        <v>354.32000000000698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1414,47 +1414,149 @@
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="A38" s="9">
+        <v>44410</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>13982</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" ref="D38:D39" si="24">SUM(C38,-C36)</f>
+        <v>136</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F39" si="25">D38*E38</f>
+        <v>674.56</v>
+      </c>
+      <c r="G38" s="13">
+        <f>SUM(F38,F39)</f>
+        <v>830</v>
+      </c>
+      <c r="H38" s="13">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>7432</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="24"/>
+        <v>58</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="25"/>
+        <v>155.44</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>44433</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>14198</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" ref="D40:D41" si="26">SUM(C40,-C38)</f>
+        <v>216</v>
+      </c>
+      <c r="E40" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" ref="F40:F41" si="27">D40*E40</f>
+        <v>1071.3599999999999</v>
+      </c>
+      <c r="G40" s="13">
+        <f>SUM(F40,F41)</f>
+        <v>1288.4399999999998</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1288.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>7513</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="26"/>
+        <v>81</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="27"/>
+        <v>217.08</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="12">
-        <f>SUM(G2:G37)</f>
-        <v>46094.840000000004</v>
-      </c>
-      <c r="H38" s="12">
-        <f>SUM(H2:H37)</f>
-        <v>46449.160000000011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="G42" s="12">
+        <f>SUM(G2:G41)</f>
+        <v>48213.280000000006</v>
+      </c>
+      <c r="H42" s="12">
+        <f>SUM(H2:H41)</f>
+        <v>48567.600000000013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13">
-        <f>SUM(H38,-G38)</f>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13">
+        <f>SUM(H42,-G42)</f>
         <v>354.32000000000698</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1516,37 +1516,55 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="12">
-        <f>SUM(G2:G41)</f>
-        <v>48213.280000000006</v>
-      </c>
-      <c r="H42" s="12">
-        <f>SUM(H2:H41)</f>
-        <v>48567.600000000013</v>
+      <c r="A42" s="9">
+        <v>44469</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>14316</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" ref="D42:D43" si="28">SUM(C42,-C40)</f>
+        <v>118</v>
+      </c>
+      <c r="E42" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42:F43" si="29">D42*E42</f>
+        <v>585.28</v>
+      </c>
+      <c r="G42" s="13">
+        <f>SUM(F42,F43)</f>
+        <v>724.64</v>
+      </c>
+      <c r="H42" s="13">
+        <v>947.84</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>11</v>
+      <c r="A43" s="11"/>
+      <c r="B43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10">
+        <v>7565</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="28"/>
+        <v>52</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="29"/>
+        <v>139.36000000000001</v>
       </c>
       <c r="G43" s="12"/>
-      <c r="H43" s="13">
-        <f>SUM(H42,-G42)</f>
-        <v>354.32000000000698</v>
-      </c>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -1554,9 +1572,42 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="12">
+        <f>SUM(G2:G43)</f>
+        <v>48937.920000000006</v>
+      </c>
+      <c r="H44" s="12">
+        <f>SUM(H2:H43)</f>
+        <v>49515.44000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f>SUM(H44,-G44)</f>
+        <v>577.52000000000407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/302ee.xlsx
+++ b/sputnik/personal/ee/302ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>2598.2399999999998</v>
       </c>
       <c r="H34" s="13">
-        <v>2960.88</v>
+        <v>2598.2399999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>724.64</v>
       </c>
       <c r="H42" s="13">
-        <v>947.84</v>
+        <v>724.64</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,47 +1567,149 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="A44" s="9">
+        <v>44501</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <v>14807</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" ref="D44:D45" si="30">SUM(C44,-C42)</f>
+        <v>491</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" ref="F44:F45" si="31">D44*E44</f>
+        <v>2435.36</v>
+      </c>
+      <c r="G44" s="13">
+        <f>SUM(F44,F45)</f>
+        <v>3134.84</v>
+      </c>
+      <c r="H44" s="13">
+        <v>3134.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>7826</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="30"/>
+        <v>261</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="31"/>
+        <v>699.48</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>44516</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="10">
+        <v>15168</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" ref="D46:D47" si="32">SUM(C46,-C44)</f>
+        <v>361</v>
+      </c>
+      <c r="E46" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46:F47" si="33">D46*E46</f>
+        <v>1790.56</v>
+      </c>
+      <c r="G46" s="13">
+        <f>SUM(F46,F47)</f>
+        <v>2348</v>
+      </c>
+      <c r="H46" s="13">
+        <v>2356.3200000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10">
+        <v>8034</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="32"/>
+        <v>208</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="33"/>
+        <v>557.44000000000005</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="12">
-        <f>SUM(G2:G43)</f>
-        <v>48937.920000000006</v>
-      </c>
-      <c r="H44" s="12">
-        <f>SUM(H2:H43)</f>
-        <v>49515.44000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+      <c r="G48" s="12">
+        <f>SUM(G2:G47)</f>
+        <v>54420.760000000009</v>
+      </c>
+      <c r="H48" s="12">
+        <f>SUM(H2:H47)</f>
+        <v>54420.760000000017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13">
-        <f>SUM(H44,-G44)</f>
-        <v>577.52000000000407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13">
+        <f>SUM(H48,-G48)</f>
+        <v>7.2759576141834259E-12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
